--- a/Mitai - NearField_PCB_Probes/H-Field-Near-Field-Probe/Near H-Filed-Probe/Documents_Mi-tai/Pick Place/Pick Place for Near-H-Field-Probe - JLCPCB.xlsx
+++ b/Mitai - NearField_PCB_Probes/H-Field-Near-Field-Probe/Near H-Filed-Probe/Documents_Mi-tai/Pick Place/Pick Place for Near-H-Field-Probe - JLCPCB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\EE-PCB-Marketing\Mitai - NearField_PCB_Probes\H-Field-Near-Field-Probe\Near H-Filed-Probe\Documents\V1_1\Pick Place\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\EE-PCB-Marketing\Mitai - NearField_PCB_Probes\H-Field-Near-Field-Probe\Near H-Filed-Probe\Documents_Mi-tai\Pick Place\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01AECD8D-BFAA-4DD8-A42F-3A29B50B929F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5E311C7-71AC-4DBB-9C01-A98C3256899D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1575" yWindow="3060" windowWidth="21570" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,13 +40,13 @@
     <t>Top</t>
   </si>
   <si>
-    <t>143.383mm</t>
-  </si>
-  <si>
-    <t>83.82mm</t>
-  </si>
-  <si>
     <t>J2</t>
+  </si>
+  <si>
+    <t>143.3330mm</t>
+  </si>
+  <si>
+    <t>83.8200mm</t>
   </si>
 </sst>
 </file>
@@ -406,7 +406,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -437,19 +437,19 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
